--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,6 +522,191 @@
         <v>2576.08935546875</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2460.948974609375</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2499.324462890625</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2535.28076171875</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2569.183837890625</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2601.637451171875</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2633.207275390625</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2664.305908203125</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2695.184814453125</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2725.970947265625</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2756.711181640625</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2454.139892578125</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2485.15966796875</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2514.494873046875</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2542.24169921875</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2568.758056640625</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2594.436767578125</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2619.623779296875</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2644.580810546875</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2669.480712890625</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2694.42041015625</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2476.251220703125</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2533.81298828125</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2590.822021484375</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2646.165283203125</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2699.49609375</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2751.05712890625</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2801.38427734375</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2851.085205078125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2900.704833984375</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2950.660400390625</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2456.009521484375</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2489.524658203125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2520.906982421875</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2550.5302734375</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2578.909912109375</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2606.531494140625</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2633.75390625</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2660.7919921875</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2687.744873046875</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2714.6337890625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2479.174560546875</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2538.32666015625</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2595.941162109375</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2651.21435546875</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2704.17138671875</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2755.38916015625</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2805.646484375</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2855.68115234375</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2906.070068359375</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2957.19677734375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,6 +707,43 @@
         <v>2957.19677734375</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2444.23193359375</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2464.418701171875</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2483.250244140625</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2500.949951171875</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2518.124267578125</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2535.21728515625</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2552.484130859375</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2570.037353515625</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2587.89990234375</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2606.047607421875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,6 +744,43 @@
         <v>2606.047607421875</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2443.390869140625</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2461.93798828125</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2478.121826171875</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2493.45263671875</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2508.7265625</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2524.299072265625</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2540.254638671875</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2556.545654296875</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2573.085693359375</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2589.79296875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,6 +781,43 @@
         <v>2589.79296875</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2467.34814453125</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2512.55615234375</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2555.156494140625</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2594.7587890625</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2631.690185546875</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2666.632568359375</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2700.30712890625</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2733.2998046875</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2766.003662109375</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2798.625244140625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -818,6 +818,43 @@
         <v>2798.625244140625</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2433.135498046875</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2439.91943359375</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2444.796875</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2449.132568359375</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2453.59423828125</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2458.478271484375</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2463.8486328125</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2469.63818359375</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2475.724365234375</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2481.977783203125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,6 +855,43 @@
         <v>2481.977783203125</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2435.538818359375</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2444.26513671875</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2450.910400390625</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2457.13916015625</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2463.6025390625</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2470.497802734375</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2477.800048828125</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2485.396484375</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2493.16162109375</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2500.991455078125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -892,6 +892,43 @@
         <v>2500.991455078125</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2482.640625</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2545.779541015625</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2606.32763671875</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2663.23681640625</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2716.8173828125</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2768.046630859375</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2818.0087890625</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2867.58251953125</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2917.34033203125</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2967.5703125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,6 +929,43 @@
         <v>2967.5703125</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2453.22998046875</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2482.949462890625</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2510.733154296875</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2536.263671875</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2560.0576171875</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2582.714599609375</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2604.748291015625</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2626.5244140625</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2648.26123046875</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2670.05859375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,6 +966,43 @@
         <v>2670.05859375</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2397.42919921875</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2365.924560546875</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2333.793701171875</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2303.49560546875</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2276.63623046875</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2253.40966796875</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2233.212890625</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2215.174560546875</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2198.473876953125</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2182.48974609375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,6 +1003,43 @@
         <v>2182.48974609375</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2430.501708984375</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2435.0380859375</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2437.555419921875</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2439.572509765625</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2441.86669921875</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2444.76904296875</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2448.33740234375</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2452.48486328125</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2457.069580078125</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2461.947021484375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,6 +1040,43 @@
         <v>2461.947021484375</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2450.132080078125</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2476.368408203125</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2499.908447265625</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2521.92919921875</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2543.177490234375</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2564.1552734375</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2585.13232421875</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2606.20703125</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2627.373779296875</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2648.57763671875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,6 +1077,43 @@
         <v>2648.57763671875</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2460.765380859375</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2499.644775390625</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2536.974853515625</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2572.36376953125</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2606.093505859375</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2638.65869140625</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2670.566650390625</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2702.236572265625</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2733.96484375</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2765.929443359375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1114,6 +1114,43 @@
         <v>2765.929443359375</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2443.789794921875</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2462.90771484375</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2479.615966796875</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2495.20703125</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2510.373779296875</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2525.46142578125</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2540.604248046875</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2555.830810546875</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2571.123291015625</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2586.453857421875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1151,6 +1151,43 @@
         <v>2586.453857421875</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2470.21826171875</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2519.18310546875</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2565.802001953125</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2609.49853515625</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2650.5673828125</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2689.790771484375</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2728.04150390625</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2766.059326171875</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2804.354736328125</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2843.2099609375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1188,6 +1188,43 @@
         <v>2843.2099609375</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2413.45263671875</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2398.277587890625</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2382.126708984375</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2366.921630859375</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2353.42431640625</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2341.786376953125</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2331.810546875</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2323.144287109375</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2315.407470703125</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2308.26513671875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1225,6 +1225,43 @@
         <v>2308.26513671875</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2442.6328125</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2460.41796875</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2476.837890625</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2491.733642578125</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2505.671630859375</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2519.125</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2532.417724609375</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2545.73486328125</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2559.1484375</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2572.655517578125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1262,6 +1262,43 @@
         <v>2572.655517578125</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2470.247802734375</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2519.001220703125</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2565.472900390625</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2609.401611328125</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2651.103515625</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2691.158935546875</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2730.1484375</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2768.5341796875</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2806.630126953125</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2844.620361328125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1299,6 +1299,43 @@
         <v>2844.620361328125</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2459.324462890625</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2495.88330078125</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2530.3544921875</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2562.87158203125</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2593.809326171875</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2623.57568359375</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2652.513671875</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2680.88134765625</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2708.86181640625</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2736.577880859375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1336,6 +1336,43 @@
         <v>2736.577880859375</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2432.108154296875</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2436.8828125</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2439.615478515625</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2441.705810546875</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2443.96923828125</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2446.7626953125</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2450.15087890625</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2454.0498046875</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2458.32080078125</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2462.826904296875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,6 +1373,43 @@
         <v>2462.826904296875</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2448.169921875</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2471.95458984375</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2493.458251953125</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2513.490234375</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2532.623779296875</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2551.268798828125</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2569.685791015625</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2588.019775390625</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2606.336181640625</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2624.652099609375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1410,6 +1410,43 @@
         <v>2624.652099609375</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2444.504638671875</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2463.73779296875</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2480.749267578125</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2496.476318359375</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2511.52978515625</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2526.313720703125</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2541.0595703125</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2555.8798828125</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2570.80908203125</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2585.8408203125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,6 +1447,43 @@
         <v>2585.8408203125</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2440.435546875</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2456.46533203125</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2470.87109375</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2484.092529296875</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2496.8125</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2509.436279296875</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2522.131103515625</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2534.92431640625</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2547.779052734375</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2560.642822265625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1484,6 +1484,43 @@
         <v>2560.642822265625</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2469.542236328125</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2517.99609375</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2563.925048828125</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2606.662109375</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2646.359130859375</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2683.64501953125</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2719.317626953125</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2754.137939453125</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2788.7158203125</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2823.469482421875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1521,6 +1521,43 @@
         <v>2823.469482421875</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2430.942138671875</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2435.076171875</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2437.427978515625</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2439.613037109375</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2442.215576171875</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2445.416748046875</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2449.193359375</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2453.4384765625</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2458.027587890625</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2462.848388671875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1558,6 +1558,43 @@
         <v>2462.848388671875</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2479.549560546875</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2540.125</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2599.158935546875</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2655.88525390625</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2710.439208984375</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2763.351806640625</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2815.259521484375</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2866.7421875</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2918.251953125</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2970.09716796875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1595,6 +1595,43 @@
         <v>2970.09716796875</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2451.40966796875</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2481.014404296875</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2508.587646484375</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2534.3515625</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2558.768310546875</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2582.3291015625</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2605.4248046875</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2628.311767578125</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2651.126220703125</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2673.918212890625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1632,6 +1632,43 @@
         <v>2673.918212890625</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2472.603515625</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2524.599853515625</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2574.580810546875</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2622.15234375</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2667.563720703125</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2711.35791015625</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2754.132568359375</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2796.40966796875</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2838.583740234375</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2880.917236328125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1669,6 +1669,43 @@
         <v>2880.917236328125</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2452.6083984375</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2481.909423828125</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2509.686279296875</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2535.693359375</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2560.38330078125</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2584.280029296875</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2607.8359375</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2631.37744140625</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2655.101806640625</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2679.095458984375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1706,6 +1706,43 @@
         <v>2679.095458984375</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2435.8095703125</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2446.204345703125</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2454.694580078125</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2462.356201171875</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2469.989013671875</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2477.99169921875</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2486.4609375</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2495.317626953125</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2504.413818359375</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2513.6015625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1743,6 +1743,43 @@
         <v>2513.6015625</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2411.44287109375</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2393.98583984375</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2375.736572265625</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2359.0634765625</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2344.737060546875</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2332.61474609375</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2322.193603515625</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2312.943115234375</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2304.44189453125</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2296.4013671875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1780,6 +1780,43 @@
         <v>2296.4013671875</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2445.601806640625</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2467.26953125</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2486.89208984375</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2505.326171875</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2523.216796875</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2540.991455078125</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2558.89013671875</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2577.019287109375</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2595.406005859375</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2614.036865234375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1817,6 +1817,43 @@
         <v>2614.036865234375</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2449.091064453125</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2474.80078125</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2498.62890625</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2520.74072265625</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2541.71923828125</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2562.117919921875</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2582.327880859375</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2602.576904296875</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2622.967041015625</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2643.51806640625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1854,6 +1854,43 @@
         <v>2643.51806640625</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2463.393310546875</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2505.588134765625</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2546.317138671875</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2585.3125</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2622.71142578125</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2658.83056640625</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2694.018310546875</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2728.58154296875</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2762.75244140625</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2796.6865234375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1891,6 +1891,43 @@
         <v>2796.6865234375</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2477.28564453125</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2535.01171875</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2590.96435546875</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2644.846923828125</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2697.183837890625</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2748.686767578125</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2799.96337890625</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2851.427734375</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2903.312255859375</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2955.7197265625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1928,6 +1928,43 @@
         <v>2955.7197265625</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2499.95849609375</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2584.410888671875</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2668.110107421875</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2749.445556640625</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2827.998779296875</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2904.146728515625</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2978.6806640625</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3052.494873046875</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3126.388916015625</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3200.962646484375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1965,6 +1965,43 @@
         <v>3200.962646484375</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2507.54736328125</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2602.206787109375</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2698.4521484375</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2793.8251953125</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2887.923583984375</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2981.310791015625</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3074.9072265625</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3169.620849609375</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3266.16064453125</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3364.976806640625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2002,6 +2002,43 @@
         <v>3364.976806640625</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2394.42626953125</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2358.326416015625</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2321.62109375</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2287.818359375</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2258.090576171875</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2232.314697265625</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2209.77685546875</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2189.621337890625</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2171.084228515625</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2153.580078125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2039,6 +2039,43 @@
         <v>2153.580078125</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2456.669189453125</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2491.098388671875</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2524.21240234375</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2556.105224609375</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2587.1494140625</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2617.73486328125</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2648.184814453125</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2678.734619140625</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2709.53955078125</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2740.69189453125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,6 +2076,43 @@
         <v>2740.69189453125</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-08</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2443.517333984375</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2463.16064453125</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2480.57470703125</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2496.447265625</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2511.3994140625</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2525.89501953125</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2540.229736328125</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2554.565185546875</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2568.968505859375</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2583.4482421875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2113,6 +2113,43 @@
         <v>2583.4482421875</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2464.65234375</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2506.587158203125</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2545.4501953125</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2581.658935546875</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2615.9091796875</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2648.81103515625</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2680.78466796875</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2712.083251953125</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2742.848876953125</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2773.166748046875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2150,6 +2150,43 @@
         <v>2773.166748046875</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-10</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2431.563720703125</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2436.371337890625</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2439.366455078125</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2442.439208984375</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2446.12744140625</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2450.515625</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2455.479248046875</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2460.8408203125</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2466.44189453125</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2472.166748046875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2187,6 +2187,43 @@
         <v>2472.166748046875</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-11</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2436.197021484375</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2446.291748046875</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2454.543212890625</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2462.19287109375</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2469.903564453125</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2477.956787109375</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2486.37109375</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2495.054931640625</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2503.89306640625</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2512.7890625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,6 +2224,43 @@
         <v>2512.7890625</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2402.5205078125</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2373.35791015625</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2342.667236328125</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2314.340087890625</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2289.22119140625</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2267.083740234375</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2247.340087890625</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2229.370361328125</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2212.654296875</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2196.806640625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2261,6 +2261,43 @@
         <v>2196.806640625</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2437.025390625</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2449.999755859375</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2460.917724609375</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2470.646728515625</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2479.96923828125</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2489.359619140625</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2499.014892578125</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2508.947265625</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2519.073486328125</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2529.28125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2298,6 +2298,43 @@
         <v>2529.28125</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-14</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2451.263427734375</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2478.480224609375</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2503.58642578125</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2526.6904296875</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2548.28564453125</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2568.870361328125</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2588.853759765625</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2608.533203125</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2628.104248046875</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2647.67822265625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2335,6 +2335,43 @@
         <v>2647.67822265625</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-15</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2462.27294921875</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2502.511474609375</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2540.55712890625</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2576.611572265625</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2611.18359375</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2644.788818359375</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2677.826171875</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2710.564697265625</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2743.169921875</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2775.73681640625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2372,6 +2372,43 @@
         <v>2775.73681640625</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-16</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2465.250244140625</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2509.42138671875</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2551.698486328125</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2591.6708984375</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2629.598876953125</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2666.052978515625</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2701.65576171875</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2736.939208984375</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2772.288818359375</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2807.943603515625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2409,6 +2409,43 @@
         <v>2807.943603515625</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2439.02978515625</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2452.552734375</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2463.8662109375</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2474.64013671875</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2485.655517578125</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2497.1513671875</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2509.082275390625</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2521.303955078125</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2533.67236328125</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2546.087158203125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2446,6 +2446,43 @@
         <v>2546.087158203125</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2451.795654296875</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2479.96240234375</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2505.79345703125</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2529.9013671875</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2552.741455078125</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2574.7099609375</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2596.127197265625</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2617.238037109375</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2638.219482421875</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2659.19140625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2483,6 +2483,43 @@
         <v>2659.19140625</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2441.835205078125</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2459.17822265625</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2475.2275390625</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2490.030517578125</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2504.203125</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2518.211181640625</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2532.321533203125</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2546.6513671875</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2561.21875</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2575.988525390625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2520,6 +2520,43 @@
         <v>2575.988525390625</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2413.755126953125</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2399.83349609375</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2385.83544921875</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2372.67041015625</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2361.291015625</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2351.6884765625</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2343.445068359375</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2336.085205078125</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2329.2333984375</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2322.648193359375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2557,6 +2557,43 @@
         <v>2322.648193359375</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-21</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2429.31103515625</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2433.544189453125</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2436.65625</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2438.947265625</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2441.286865234375</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2444.111328125</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2447.535888671875</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2451.4912109375</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2455.83251953125</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2460.4072265625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2594,6 +2594,43 @@
         <v>2460.4072265625</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-22</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2453.5126953125</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2483.508544921875</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2511.01904296875</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2536.607421875</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2560.814453125</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2584.1240234375</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2606.910888671875</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2629.440185546875</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2651.886474609375</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2674.354248046875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2631,6 +2631,43 @@
         <v>2674.354248046875</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2446.023681640625</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2468.1025390625</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2488.709716796875</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2507.931396484375</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2526.295654296875</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2544.242431640625</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2562.0712890625</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2579.957275390625</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2597.982421875</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2616.164794921875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2668,6 +2668,43 @@
         <v>2616.164794921875</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2450.92333984375</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2478.423583984375</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2503.465087890625</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2526.6640625</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2548.572998046875</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2569.64697265625</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2590.214111328125</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2610.482177734375</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2630.570556640625</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2650.538330078125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2705,6 +2705,43 @@
         <v>2650.538330078125</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-25</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2484.47607421875</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2549.975830078125</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2613.38720703125</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2673.521240234375</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2730.287109375</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2784.214111328125</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2836.111572265625</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2886.80029296875</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2936.961181640625</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2987.075927734375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2742,6 +2742,43 @@
         <v>2987.075927734375</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-26</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2472.10302734375</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2523.552978515625</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2572.7998046875</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2619.226806640625</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2662.943603515625</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2704.428955078125</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2744.2724609375</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2783.0205078125</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2821.103515625</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2858.816162109375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2779,6 +2779,43 @@
         <v>2858.816162109375</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2463.565185546875</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2505.674560546875</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2545.91064453125</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2584.16357421875</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2620.8720703125</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2656.61328125</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2691.89453125</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2727.082763671875</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2762.40576171875</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2797.987060546875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2816,6 +2816,43 @@
         <v>2797.987060546875</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2432.868408203125</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2439.17578125</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2443.480712890625</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2447.351806640625</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2451.452392578125</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2456.028076171875</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2461.083984375</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2466.52099609375</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2472.215087890625</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2478.05517578125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2853,6 +2853,43 @@
         <v>2478.05517578125</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2446.808837890625</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2469.9697265625</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2490.831298828125</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2509.932373046875</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2527.923828125</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2545.328857421875</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2562.51025390625</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2579.6865234375</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2596.965087890625</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2614.37939453125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2890,6 +2890,43 @@
         <v>2614.37939453125</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2444.689697265625</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2465.111328125</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2483.092041015625</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2499.444091796875</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2514.876220703125</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2529.90966796875</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2544.8662109375</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2559.90380859375</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2575.068115234375</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2590.340576171875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predicted_prices.xlsx
+++ b/predicted_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2927,6 +2927,43 @@
         <v>2590.340576171875</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2427.994140625</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2428.582763671875</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2427.6630859375</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2426.62451171875</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2426.19384765625</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2426.558349609375</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2427.63134765625</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2429.2314453125</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2431.179443359375</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2433.3369140625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
